--- a/sm_core/New_Accounts_List/New_Accounts_List-Schwab.xlsx
+++ b/sm_core/New_Accounts_List/New_Accounts_List-Schwab.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backup\portfolio\sm_core\New_Accounts_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sm-core\sm_core\New_Accounts_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7936AE78-6291-4A54-ACB0-6C6F5EBA7287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585409C1-17B9-4EFE-A196-C7EBD4C94635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,7 +890,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:XFD6"/>
+      <selection activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
